--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cauan\Documents\Meu Repositório do Tableau\Fontes de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAB5B9A-EEBB-458E-8899-AA524DD1EF37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634DC4C5-FCCE-4150-BF1C-DAB591A8B8EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="9" xr2:uid="{D975CF67-906E-4B24-912B-A5186FE1E85E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D975CF67-906E-4B24-912B-A5186FE1E85E}"/>
   </bookViews>
   <sheets>
     <sheet name="Work Experience" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="172">
   <si>
     <t>Title</t>
   </si>
@@ -529,6 +529,33 @@
   </si>
   <si>
     <t>Presentations of work</t>
+  </si>
+  <si>
+    <t>http://www.ence.ibge.gov.br/images/ence/doc/mestrado/dissertacoes/2018/Dissertacao_CauanBraga_2018.pdf</t>
+  </si>
+  <si>
+    <t>http://bdm.unb.br/bitstream/10483/13230/1/2015_CauanBragadaSilvaCardoso.pdf</t>
+  </si>
+  <si>
+    <t>Youth and right to the city: student movements in the higher education institutions of the Rio de Janeiro in 2016</t>
+  </si>
+  <si>
+    <t>Vulnerabilidade juvenil na área metropolitana de Brasília: construção de um índice sintético</t>
+  </si>
+  <si>
+    <t>TCC Type</t>
+  </si>
+  <si>
+    <t>Monograph</t>
+  </si>
+  <si>
+    <t>Dissertation</t>
+  </si>
+  <si>
+    <t>Thesis</t>
+  </si>
+  <si>
+    <t>TCC Name</t>
   </si>
 </sst>
 </file>
@@ -538,7 +565,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +585,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -593,7 +634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -624,6 +665,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1102,7 +1145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62894946-5006-4940-9204-FF0CAF362FD2}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1158,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E59CDB-ADA6-4751-A6EE-8A39101E975B}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,9 +1213,11 @@
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1188,8 +1233,17 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1205,8 +1259,17 @@
       <c r="E2" s="10">
         <v>42255</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1222,8 +1285,17 @@
       <c r="E3" s="10">
         <v>43161</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1237,9 +1309,17 @@
         <v>43164</v>
       </c>
       <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{E1677040-6733-4A00-908D-EB238F0ABC1E}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{9486F830-8D7A-4229-86FF-2CC3F8FE8AA8}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1357,7 +1437,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="100.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -1812,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE15057-B7BE-4021-9290-38D804D3BEBC}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cauan\Documents\Meu Repositório do Tableau\Fontes de dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cauan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634DC4C5-FCCE-4150-BF1C-DAB591A8B8EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69851A19-D753-4506-A302-7E6472440CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D975CF67-906E-4B24-912B-A5186FE1E85E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D975CF67-906E-4B24-912B-A5186FE1E85E}"/>
   </bookViews>
   <sheets>
     <sheet name="Work Experience" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Awards" sheetId="9" r:id="rId9"/>
     <sheet name="Research" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="182">
   <si>
     <t>Title</t>
   </si>
@@ -556,6 +556,38 @@
   </si>
   <si>
     <t>TCC Name</t>
+  </si>
+  <si>
+    <t>A intermediação de mão-de-obra no Sistema Nacional de Emprego: 2003-2019 – modernização ou desmonte?</t>
+  </si>
+  <si>
+    <t>https://ence.ibge.gov.br/images/ence/pos_graduacao/seminarios_de_dissertacao/2022/Tese_Cauan_Braga_da_Silva_Cardoso_1.pdf</t>
+  </si>
+  <si>
+    <t>IDP</t>
+  </si>
+  <si>
+    <t>Brazilian Institute of Teaching, Development and Research</t>
+  </si>
+  <si>
+    <t>MBA in Big Data and Data Science Applied to the Public Sector</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>International Labour Organization</t>
+  </si>
+  <si>
+    <t>ILO</t>
+  </si>
+  <si>
+    <t>Research Fellow at the Institute for Applied Economic Research (IPEA) in the "Sector assistance indicator/report (subsidies and tariff protection)" project.</t>
+  </si>
+  <si>
+    <t>Consultant in the "Strengthened constituent’s capacity to analyse labour
+market indicators targeting better employment services and high impact
+partnerships for promoting decent work by the end of 2023" project.</t>
   </si>
 </sst>
 </file>
@@ -643,9 +675,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,13 +689,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -982,22 +1018,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C66063E-2BA3-4F1B-A5CB-122CCD4385EC}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="87.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1017,121 +1053,161 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="7">
+        <v>44802</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="7">
+        <v>43700</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44795</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D4" s="7">
         <v>43395</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2" t="s">
+      <c r="E4" s="7">
+        <v>44050</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D5" s="7">
         <v>43388</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E5" s="8">
         <v>43422</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D6" s="7">
         <v>42321</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E6" s="8">
         <v>43416</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D7" s="7">
         <v>40732</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E7" s="8">
         <v>42186</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D8" s="7">
         <v>41044</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E8" s="8">
         <v>41379</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D9" s="7">
         <v>40371</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E9" s="8">
         <v>40543</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1149,45 +1225,45 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1201,23 +1277,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E59CDB-ADA6-4751-A6EE-8A39101E975B}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1239,11 +1315,11 @@
       <c r="G1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1253,23 +1329,23 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>40042</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>42255</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1279,23 +1355,23 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>42437</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>43161</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1305,12 +1381,37 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>43164</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="9">
+        <v>44874</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>170</v>
+      </c>
+      <c r="G4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="14">
+        <v>44275</v>
+      </c>
+      <c r="E5" s="14">
+        <v>44764</v>
       </c>
     </row>
   </sheetData>
@@ -1331,16 +1432,16 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1356,64 +1457,64 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>43498</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>43561</v>
       </c>
       <c r="F2">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>43498</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>43596</v>
       </c>
       <c r="F3">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C4" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>43605</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>43608</v>
       </c>
       <c r="F4">
@@ -1434,16 +1535,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1453,24 +1554,24 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>43605</v>
       </c>
       <c r="D2" t="s">
@@ -1483,14 +1584,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>43367</v>
       </c>
       <c r="D3" t="s">
@@ -1503,14 +1604,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>43365</v>
       </c>
       <c r="D4" t="s">
@@ -1523,14 +1624,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>43347</v>
       </c>
       <c r="D5" t="s">
@@ -1543,14 +1644,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>43059</v>
       </c>
       <c r="D6" t="s">
@@ -1563,14 +1664,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>126</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>43006</v>
       </c>
       <c r="D7" t="s">
@@ -1583,14 +1684,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>42660</v>
       </c>
       <c r="D8" t="s">
@@ -1603,14 +1704,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>42211</v>
       </c>
       <c r="D9" t="s">
@@ -1623,14 +1724,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>42283</v>
       </c>
       <c r="D10" t="s">
@@ -1643,14 +1744,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>42207</v>
       </c>
       <c r="D11" t="s">
@@ -1663,14 +1764,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>42269</v>
       </c>
       <c r="D12" t="s">
@@ -1683,14 +1784,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>42247</v>
       </c>
       <c r="D13" t="s">
@@ -1703,14 +1804,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>96</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>42005</v>
       </c>
       <c r="D14" t="s">
@@ -1723,14 +1824,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>91</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>41716</v>
       </c>
       <c r="D15" t="s">
@@ -1743,14 +1844,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>41967</v>
       </c>
       <c r="D16" t="s">
@@ -1763,14 +1864,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>41982</v>
       </c>
       <c r="D17" t="s">
@@ -1783,14 +1884,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>41840</v>
       </c>
       <c r="D18" t="s">
@@ -1803,14 +1904,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>41219</v>
       </c>
       <c r="D19" t="s">
@@ -1823,14 +1924,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>55</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>41120</v>
       </c>
       <c r="D20" t="s">
@@ -1843,14 +1944,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>40784</v>
       </c>
       <c r="D21" t="s">
@@ -1863,14 +1964,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>40494</v>
       </c>
       <c r="D22" t="s">
@@ -1890,19 +1991,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE15057-B7BE-4021-9290-38D804D3BEBC}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1913,7 +2014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1924,7 +2025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1935,7 +2036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1946,7 +2047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1957,20 +2058,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -1979,9 +2080,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -1990,9 +2091,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -2001,20 +2102,20 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -2023,25 +2124,36 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
       </c>
       <c r="C13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2058,13 +2170,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -2075,7 +2187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2086,7 +2198,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -2097,7 +2209,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -2108,7 +2220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -2119,7 +2231,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -2130,7 +2242,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -2155,12 +2267,12 @@
       <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2168,27 +2280,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2210,13 +2322,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>156</v>
       </c>
@@ -2227,30 +2339,30 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2270,14 +2382,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -2290,11 +2402,11 @@
       <c r="D1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -2304,14 +2416,14 @@
       <c r="C2">
         <v>2019</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -2321,14 +2433,14 @@
       <c r="C3">
         <v>2017</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -2338,14 +2450,14 @@
       <c r="C4">
         <v>2015</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -2355,10 +2467,10 @@
       <c r="C5">
         <v>2014</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>139</v>
       </c>
     </row>

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cauan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69851A19-D753-4506-A302-7E6472440CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE36944-51AD-4E53-8E8D-6FEF88AE8506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D975CF67-906E-4B24-912B-A5186FE1E85E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D975CF67-906E-4B24-912B-A5186FE1E85E}"/>
   </bookViews>
   <sheets>
     <sheet name="Work Experience" sheetId="1" r:id="rId1"/>
@@ -531,13 +531,7 @@
     <t>Presentations of work</t>
   </si>
   <si>
-    <t>http://www.ence.ibge.gov.br/images/ence/doc/mestrado/dissertacoes/2018/Dissertacao_CauanBraga_2018.pdf</t>
-  </si>
-  <si>
     <t>http://bdm.unb.br/bitstream/10483/13230/1/2015_CauanBragadaSilvaCardoso.pdf</t>
-  </si>
-  <si>
-    <t>Youth and right to the city: student movements in the higher education institutions of the Rio de Janeiro in 2016</t>
   </si>
   <si>
     <t>Vulnerabilidade juvenil na área metropolitana de Brasília: construção de um índice sintético</t>
@@ -588,6 +582,12 @@
     <t>Consultant in the "Strengthened constituent’s capacity to analyse labour
 market indicators targeting better employment services and high impact
 partnerships for promoting decent work by the end of 2023" project.</t>
+  </si>
+  <si>
+    <t>https://ence.ibge.gov.br/images/ence/doc/mestrado/dissertacoes/2018/Dissertacao_CauanBraga_2018.pdf</t>
+  </si>
+  <si>
+    <t>Juventude e direito à cidade: mobilizações estudantis nas instituições de ensino superior na Região Metropolitana do Rio de Janeiro em 2016</t>
   </si>
 </sst>
 </file>
@@ -666,7 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -693,14 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1020,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C66063E-2BA3-4F1B-A5CB-122CCD4385EC}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1054,11 +1047,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>179</v>
+      <c r="A2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>123</v>
@@ -1067,8 +1060,8 @@
         <v>44802</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="17" t="s">
-        <v>181</v>
+      <c r="F2" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1088,7 +1081,7 @@
         <v>44795</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1277,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E59CDB-ADA6-4751-A6EE-8A39101E975B}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1310,10 +1303,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>63</v>
@@ -1336,13 +1329,13 @@
         <v>42255</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1362,13 +1355,13 @@
         <v>43161</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1388,48 +1381,32 @@
         <v>44874</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" t="s">
         <v>170</v>
       </c>
-      <c r="G4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="14">
-        <v>44275</v>
-      </c>
-      <c r="E5" s="14">
-        <v>44764</v>
+      <c r="H4" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{E1677040-6733-4A00-908D-EB238F0ABC1E}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{9486F830-8D7A-4229-86FF-2CC3F8FE8AA8}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{902E7A31-E7C2-4F4B-9961-957FCFAFD61F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08ED18A1-DD5F-4ECC-B18C-4A9244D69516}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1519,6 +1496,26 @@
       </c>
       <c r="F4">
         <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="9">
+        <v>44275</v>
+      </c>
+      <c r="E5" s="9">
+        <v>44764</v>
+      </c>
+      <c r="F5">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -2060,7 +2057,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cauan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE36944-51AD-4E53-8E8D-6FEF88AE8506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F149000E-9B78-4A06-B67B-A894DF6F13C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D975CF67-906E-4B24-912B-A5186FE1E85E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D975CF67-906E-4B24-912B-A5186FE1E85E}"/>
   </bookViews>
   <sheets>
     <sheet name="Work Experience" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="185">
   <si>
     <t>Title</t>
   </si>
@@ -588,6 +588,15 @@
   </si>
   <si>
     <t>Juventude e direito à cidade: mobilizações estudantis nas instituições de ensino superior na Região Metropolitana do Rio de Janeiro em 2016</t>
+  </si>
+  <si>
+    <t>Economic Commission for Latin America and the Caribbean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECLAC </t>
+  </si>
+  <si>
+    <t>Consultant in the "Radar Bulletin" of the Institute for Applied Economic Research (IPEA).</t>
   </si>
 </sst>
 </file>
@@ -1011,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C66063E-2BA3-4F1B-A5CB-122CCD4385EC}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,161 +1055,183 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D2" s="7">
+        <v>44921</v>
+      </c>
+      <c r="E2" s="7">
+        <v>45141</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="7">
         <v>44802</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="14" t="s">
+      <c r="E3" s="7">
+        <v>45065</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D4" s="7">
         <v>43700</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E4" s="7">
         <v>44795</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D5" s="7">
         <v>43395</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E5" s="7">
         <v>44050</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="7">
         <v>43388</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E6" s="8">
         <v>43422</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="7">
-        <v>42321</v>
-      </c>
-      <c r="E6" s="8">
-        <v>43416</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>40732</v>
+        <v>42321</v>
       </c>
       <c r="E7" s="8">
-        <v>42186</v>
+        <v>43416</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7">
+        <v>40732</v>
+      </c>
+      <c r="E8" s="8">
+        <v>42186</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>41044</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="8">
         <v>41379</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="7">
         <v>40371</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="8">
         <v>40543</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1272,7 +1303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E59CDB-ADA6-4751-A6EE-8A39101E975B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1990,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE15057-B7BE-4021-9290-38D804D3BEBC}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2041,7 +2072,7 @@
         <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/Curriculum.xlsx
+++ b/Curriculum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cauan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53ce5d74cc4f8aad/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F149000E-9B78-4A06-B67B-A894DF6F13C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F149000E-9B78-4A06-B67B-A894DF6F13C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5482C58B-B1CF-4FDC-8B87-2C92364966B0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D975CF67-906E-4B24-912B-A5186FE1E85E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{D975CF67-906E-4B24-912B-A5186FE1E85E}"/>
   </bookViews>
   <sheets>
     <sheet name="Work Experience" sheetId="1" r:id="rId1"/>
@@ -498,9 +498,6 @@
     <t>IPC-IG</t>
   </si>
   <si>
-    <t>+55 61 996-489-338</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -520,9 +517,6 @@
   </si>
   <si>
     <t>Action</t>
-  </si>
-  <si>
-    <t>70761-670, Brasília/DF, Brazil</t>
   </si>
   <si>
     <t>https://cauancardoso.github.io/presentations/</t>
@@ -597,6 +591,12 @@
   </si>
   <si>
     <t>Consultant in the "Radar Bulletin" of the Institute for Applied Economic Research (IPEA).</t>
+  </si>
+  <si>
+    <t>125, Jor Bagh, New Delhi, Delhi - 110003</t>
+  </si>
+  <si>
+    <t>+91 9289371682</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>123</v>
@@ -1072,15 +1072,15 @@
         <v>45141</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>123</v>
@@ -1092,7 +1092,7 @@
         <v>45065</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1112,7 +1112,7 @@
         <v>44795</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1280,10 +1280,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1334,10 +1334,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>63</v>
@@ -1360,13 +1360,13 @@
         <v>42255</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1386,13 +1386,13 @@
         <v>43161</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1412,13 +1412,13 @@
         <v>44874</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" t="s">
         <v>168</v>
       </c>
-      <c r="G4" t="s">
-        <v>170</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1531,13 +1531,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
         <v>172</v>
-      </c>
-      <c r="C5" t="s">
-        <v>174</v>
       </c>
       <c r="D5" s="9">
         <v>44275</v>
@@ -2021,7 +2021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE15057-B7BE-4021-9290-38D804D3BEBC}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -2346,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBC8ADC-90A7-48CB-8970-146E59FC063D}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2358,29 +2358,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>67</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
